--- a/natmiOut/OldD0/LR-pairs_lrc2p/Gdnf-Ret.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Gdnf-Ret.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.674369505729859</v>
+        <v>0.697917</v>
       </c>
       <c r="H2">
-        <v>0.674369505729859</v>
+        <v>2.093751</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.627166024452897</v>
+        <v>0.8229576666666668</v>
       </c>
       <c r="N2">
-        <v>0.627166024452897</v>
+        <v>2.468873</v>
       </c>
       <c r="O2">
-        <v>0.02616474681139565</v>
+        <v>0.03362764644735265</v>
       </c>
       <c r="P2">
-        <v>0.02616474681139565</v>
+        <v>0.03362764644735265</v>
       </c>
       <c r="Q2">
-        <v>0.4229416419208608</v>
+        <v>0.5743561458470001</v>
       </c>
       <c r="R2">
-        <v>0.4229416419208608</v>
+        <v>5.169205312623001</v>
       </c>
       <c r="S2">
-        <v>0.02616474681139565</v>
+        <v>0.03362764644735265</v>
       </c>
       <c r="T2">
-        <v>0.02616474681139565</v>
+        <v>0.03362764644735265</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.674369505729859</v>
+        <v>0.697917</v>
       </c>
       <c r="H3">
-        <v>0.674369505729859</v>
+        <v>2.093751</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.8472441604368</v>
+        <v>23.10177466666667</v>
       </c>
       <c r="N3">
-        <v>22.8472441604368</v>
+        <v>69.305324</v>
       </c>
       <c r="O3">
-        <v>0.9531644500631964</v>
+        <v>0.9439833204831614</v>
       </c>
       <c r="P3">
-        <v>0.9531644500631964</v>
+        <v>0.9439833204831615</v>
       </c>
       <c r="Q3">
-        <v>15.40748475176317</v>
+        <v>16.123121270036</v>
       </c>
       <c r="R3">
-        <v>15.40748475176317</v>
+        <v>145.108091430324</v>
       </c>
       <c r="S3">
-        <v>0.9531644500631964</v>
+        <v>0.9439833204831614</v>
       </c>
       <c r="T3">
-        <v>0.9531644500631964</v>
+        <v>0.9439833204831615</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.674369505729859</v>
+        <v>0.697917</v>
       </c>
       <c r="H4">
-        <v>0.674369505729859</v>
+        <v>2.093751</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.495476815115383</v>
+        <v>0.5479189999999999</v>
       </c>
       <c r="N4">
-        <v>0.495476815115383</v>
+        <v>1.643757</v>
       </c>
       <c r="O4">
-        <v>0.02067080312540806</v>
+        <v>0.02238903306948597</v>
       </c>
       <c r="P4">
-        <v>0.02067080312540806</v>
+        <v>0.02238903306948598</v>
       </c>
       <c r="Q4">
-        <v>0.3341344549099656</v>
+        <v>0.382401984723</v>
       </c>
       <c r="R4">
-        <v>0.3341344549099656</v>
+        <v>3.441617862507</v>
       </c>
       <c r="S4">
-        <v>0.02067080312540806</v>
+        <v>0.02238903306948597</v>
       </c>
       <c r="T4">
-        <v>0.02067080312540806</v>
+        <v>0.02238903306948598</v>
       </c>
     </row>
   </sheetData>
